--- a/data/excel/CancellationChargesRule.xlsx
+++ b/data/excel/CancellationChargesRule.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5051A331-0039-4C25-8000-C6F80E0FE175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEED067-9850-4736-A640-0562A3B745D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="128">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -798,7 +799,7 @@
   <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3034,4 +3035,508 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42E7A86-A41A-4D77-8394-9E2518C73FA7}">
+  <dimension ref="A1:BK2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4">
+        <v>9</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="4">
+        <v>3</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY2" s="4">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="BA2" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC2" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE2" s="4">
+        <v>10</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH2" s="4">
+        <v>70</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG2" xr:uid="{43E6EF5A-A2B5-472D-8E9D-3924F01D7BCE}">
+      <formula1>"Base Fare,Base Fare + YQ,Cancellation Charges"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ2" xr:uid="{8246B8C9-194F-465A-B1AB-82C52EE1BC9B}">
+      <formula1>"Base Fare,Base Fare + YQ"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BI2 BF2" xr:uid="{142C5289-F0CF-46AC-8BBF-16FE3BC89307}">
+      <formula1>"Percentage,Fixed Amount"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{3DF4237E-ECA3-4134-B065-B47964DC9C20}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2 U2 X2 Z2 AB2 AD2 AF2 AI2 AK2 AM2 AO2 AQ2 AS2 AU2 AW2 BA2 BC2" xr:uid="{A942C203-C5B8-4CE5-953B-BDA386A828F8}">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2 AH2" xr:uid="{1DE8244D-4C9E-48A3-8C8E-994510A37C56}">
+      <formula1>"Zone,Region,Country,City,Airport"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 K2" xr:uid="{4D045CD0-54F9-4DD7-8F0B-EC519099D5E8}">
+      <formula1>"1,2,3,4,5,All"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{94621ADE-60DF-45C7-8B1D-24E70F043EE4}">
+      <formula1>"Flight,Flight/Hotel,Car,Bus,Hotel,Insurance,Sightseeing,Transfer"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{C551BB71-F66F-4BC5-A321-BBE10A34C223}">
+      <formula1>"Laxmi@123,Quad@720"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{6F3F9C3D-1EC3-462A-AA89-76B05D5A31A0}">
+      <formula1>"saurav_at"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{6907E2F3-C58A-4BF1-811E-5C8D50C58551}">
+      <formula1>"at"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{3ED5B9C8-3FCE-4A2A-8DC3-AF2700BC073E}">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{8249715E-1A23-45D2-B186-F2158F44BF35}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{5EC8DA4A-EF77-4C72-B927-D6C48B92EAB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>